--- a/uploads/import/format/template_harian.xlsx
+++ b/uploads/import/format/template_harian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\project3\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E40AD-2341-4667-9430-B456B54DE2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29905FF-FEC8-4462-823F-C5E083C1FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,19 @@
     <sheet name="KD-P" sheetId="2" r:id="rId2"/>
     <sheet name="KD-K" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -841,21 +850,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -863,12 +859,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,6 +890,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -908,37 +899,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,939 +1279,942 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26:AD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" customWidth="1"/>
-    <col min="31" max="32" width="16.85546875" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="16" customWidth="1"/>
+    <col min="4" max="11" width="4.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="4.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="16" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="16"/>
+    <col min="23" max="23" width="62.5703125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="16" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="16"/>
+    <col min="27" max="27" width="58.7109375" style="16" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" style="16" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" style="16" customWidth="1"/>
+    <col min="31" max="32" width="16.85546875" style="16" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" style="16" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" style="16" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" style="16" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="U1" s="24" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="U1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="21" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="34">
         <v>1</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC4" s="22">
+      <c r="AC4" s="34">
         <v>2</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC5" s="22">
+      <c r="AC5" s="34">
         <v>3</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="27" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC6" s="22">
+      <c r="AC6" s="34">
         <v>4</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AE6" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AG6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC7" s="22">
+      <c r="AC7" s="34">
         <v>5</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="27" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC8" s="22">
+      <c r="AC8" s="34">
         <v>6</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC9" s="22">
+      <c r="AC9" s="34">
         <v>7</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AD9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AE9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AG9" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AH9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI9" s="27" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC10" s="22">
+      <c r="AC10" s="34">
         <v>8</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AD10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AG10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AI10" s="27" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC11" s="22">
+      <c r="AC11" s="34">
         <v>9</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AE11" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AG11" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AH11" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AI11" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC12" s="22">
+      <c r="AC12" s="34">
         <v>10</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AD12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AE12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AG12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AH12" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="AI12" s="1" t="s">
+      <c r="AI12" s="27" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC13" s="22">
+      <c r="AC13" s="34">
         <v>11</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AG13" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AH13" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AI13" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC14" s="22">
+      <c r="AC14" s="34">
         <v>12</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AD14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AE14" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AF14" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AG14" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AH14" s="1" t="s">
+      <c r="AH14" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AI14" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC15" s="22">
+      <c r="AC15" s="34">
         <v>13</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AE15" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AH15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AI15" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC16" s="22">
+      <c r="AC16" s="34">
         <v>14</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AD16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AE16" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AF16" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AH16" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AI16" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC17" s="22">
+      <c r="AC17" s="34">
         <v>15</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AD17" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AH17" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AI17" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC18" s="22">
+      <c r="AC18" s="34">
         <v>16</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AD18" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AH18" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AI18" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC19" s="22">
+      <c r="AC19" s="34">
         <v>17</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AD19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AE19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AF19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AG19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AH19" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AI19" s="27" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC20" s="22">
+      <c r="AC20" s="34">
         <v>18</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AD20" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AE20" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AF20" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AH20" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AI20" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC21" s="22">
+      <c r="AC21" s="34">
         <v>19</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AD21" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AE21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AH21" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AI21" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC22" s="22">
+      <c r="AC22" s="34">
         <v>20</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AD22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE22" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="AG22" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="1" t="s">
+      <c r="AH22" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AI22" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC23" s="22">
+      <c r="AC23" s="34">
         <v>21</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AD23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AH23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC24" s="22">
+      <c r="AC24" s="34">
         <v>22</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AD24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1" t="s">
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AG24" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1" t="s">
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC25" s="22">
+      <c r="AC25" s="34">
         <v>23</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AD25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1" t="s">
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AG25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1" t="s">
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC26" s="22">
+      <c r="AC26" s="34">
         <v>24</v>
       </c>
-      <c r="AD26" s="30" t="s">
+      <c r="AD26" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1" t="s">
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AG26" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1" t="s">
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC27" s="22">
+      <c r="AC27" s="34">
         <v>25</v>
       </c>
-      <c r="AD27" s="30" t="s">
+      <c r="AD27" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1" t="s">
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AG27" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1" t="s">
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC28" s="22">
+      <c r="AC28" s="34">
         <v>26</v>
       </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1" t="s">
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1" t="s">
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC29" s="22">
+      <c r="AC29" s="34">
         <v>27</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1" t="s">
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1" t="s">
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC30" s="22">
+      <c r="AC30" s="34">
         <v>28</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1" t="s">
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1" t="s">
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC31" s="22">
+      <c r="AC31" s="34">
         <v>29</v>
       </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1" t="s">
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1" t="s">
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC32" s="22">
+      <c r="AC32" s="34">
         <v>30</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1" t="s">
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1" t="s">
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC33" s="22">
+      <c r="AC33" s="34">
         <v>31</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1" t="s">
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1" t="s">
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC34" s="22">
+      <c r="AC34" s="34">
         <v>32</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1" t="s">
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC35" s="22">
+      <c r="AC35" s="34">
         <v>33</v>
       </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1" t="s">
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC36" s="22">
+      <c r="AC36" s="34">
         <v>34</v>
       </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1" t="s">
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="U1:U2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AI1"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Petunjuk" error="Tulis ringkasan KD maksimal 65 huruf" sqref="W3 AA3" xr:uid="{0280FB62-0CEE-4A2D-9FB8-37293863B9B1}">
@@ -2170,7 +2231,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,36 +2242,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2231,7 +2292,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,31 +2303,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/uploads/import/format/template_harian.xlsx
+++ b/uploads/import/format/template_harian.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29905FF-FEC8-4462-823F-C5E083C1FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB73D44-1568-415E-A2A9-436E1DB3E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NILAI" sheetId="1" r:id="rId1"/>
-    <sheet name="KD-P" sheetId="2" r:id="rId2"/>
-    <sheet name="KD-K" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
   <si>
     <t>NO</t>
   </si>
@@ -654,14 +650,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,19 +701,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -741,18 +730,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -846,155 +829,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,941 +1428,941 @@
   <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="16" customWidth="1"/>
-    <col min="4" max="11" width="4.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="4.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="16" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="16"/>
-    <col min="23" max="23" width="62.5703125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="16" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="16"/>
-    <col min="27" max="27" width="58.7109375" style="16" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" style="16" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" style="16" customWidth="1"/>
-    <col min="31" max="32" width="16.85546875" style="16" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" style="16" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" style="16" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" style="16" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="62.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="58.7109375" style="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" style="1" customWidth="1"/>
+    <col min="31" max="32" width="16.85546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="U1" s="17" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
+      <c r="U1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-    </row>
-    <row r="2" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="22" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+    </row>
+    <row r="2" spans="1:35" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="24" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="25" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AC3" s="32">
         <v>1</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AD3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH3" s="27" t="s">
+      <c r="AH3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AI3" s="27" t="s">
+      <c r="AI3" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC4" s="34">
+      <c r="AC4" s="5">
         <v>2</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AD4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="27" t="s">
+      <c r="AF4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AG4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AH4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC5" s="34">
+      <c r="AC5" s="5">
         <v>3</v>
       </c>
-      <c r="AD5" s="27" t="s">
+      <c r="AD5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AE5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AF5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" s="27" t="s">
+      <c r="AG5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AH5" s="27" t="s">
+      <c r="AH5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC6" s="34">
+      <c r="AC6" s="5">
         <v>4</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AD6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AE6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AF6" s="27" t="s">
+      <c r="AF6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AG6" s="27" t="s">
+      <c r="AG6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AH6" s="27" t="s">
+      <c r="AH6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AI6" s="27" t="s">
+      <c r="AI6" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC7" s="34">
+      <c r="AC7" s="5">
         <v>5</v>
       </c>
-      <c r="AD7" s="27" t="s">
+      <c r="AD7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" s="27" t="s">
+      <c r="AF7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="27" t="s">
+      <c r="AG7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AH7" s="27" t="s">
+      <c r="AH7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC8" s="34">
+      <c r="AC8" s="5">
         <v>6</v>
       </c>
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AF8" s="27" t="s">
+      <c r="AF8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" s="27" t="s">
+      <c r="AG8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH8" s="27" t="s">
+      <c r="AH8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC9" s="34">
+      <c r="AC9" s="5">
         <v>7</v>
       </c>
-      <c r="AD9" s="27" t="s">
+      <c r="AD9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="27" t="s">
+      <c r="AE9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AF9" s="27" t="s">
+      <c r="AF9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AG9" s="27" t="s">
+      <c r="AG9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AH9" s="27" t="s">
+      <c r="AH9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AI9" s="27" t="s">
+      <c r="AI9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC10" s="34">
+      <c r="AC10" s="5">
         <v>8</v>
       </c>
-      <c r="AD10" s="27" t="s">
+      <c r="AD10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="27" t="s">
+      <c r="AE10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF10" s="27" t="s">
+      <c r="AF10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" s="27" t="s">
+      <c r="AG10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" s="27" t="s">
+      <c r="AH10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AI10" s="27" t="s">
+      <c r="AI10" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC11" s="34">
+      <c r="AC11" s="5">
         <v>9</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AE11" s="27" t="s">
+      <c r="AE11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AF11" s="27" t="s">
+      <c r="AF11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AG11" s="27" t="s">
+      <c r="AG11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AH11" s="27" t="s">
+      <c r="AH11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AI11" s="27" t="s">
+      <c r="AI11" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC12" s="34">
+      <c r="AC12" s="5">
         <v>10</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AD12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AE12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AF12" s="27" t="s">
+      <c r="AF12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AG12" s="27" t="s">
+      <c r="AG12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AH12" s="27" t="s">
+      <c r="AH12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AI12" s="27" t="s">
+      <c r="AI12" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC13" s="34">
+      <c r="AC13" s="5">
         <v>11</v>
       </c>
-      <c r="AD13" s="27" t="s">
+      <c r="AD13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AE13" s="27" t="s">
+      <c r="AE13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="27" t="s">
+      <c r="AF13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AG13" s="27" t="s">
+      <c r="AG13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AH13" s="27" t="s">
+      <c r="AH13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AI13" s="27" t="s">
+      <c r="AI13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC14" s="34">
+      <c r="AC14" s="5">
         <v>12</v>
       </c>
-      <c r="AD14" s="27" t="s">
+      <c r="AD14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE14" s="27" t="s">
+      <c r="AE14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AF14" s="27" t="s">
+      <c r="AF14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG14" s="27" t="s">
+      <c r="AG14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AH14" s="27" t="s">
+      <c r="AH14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AI14" s="27" t="s">
+      <c r="AI14" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC15" s="34">
+      <c r="AC15" s="5">
         <v>13</v>
       </c>
-      <c r="AD15" s="27" t="s">
+      <c r="AD15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AE15" s="27" t="s">
+      <c r="AE15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AF15" s="27" t="s">
+      <c r="AF15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AG15" s="27" t="s">
+      <c r="AG15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AH15" s="27" t="s">
+      <c r="AH15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AI15" s="27" t="s">
+      <c r="AI15" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC16" s="34">
+      <c r="AC16" s="5">
         <v>14</v>
       </c>
-      <c r="AD16" s="27" t="s">
+      <c r="AD16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE16" s="27" t="s">
+      <c r="AE16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AF16" s="27" t="s">
+      <c r="AF16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AG16" s="27" t="s">
+      <c r="AG16" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AH16" s="27" t="s">
+      <c r="AH16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AI16" s="27" t="s">
+      <c r="AI16" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC17" s="34">
+      <c r="AC17" s="5">
         <v>15</v>
       </c>
-      <c r="AD17" s="27" t="s">
+      <c r="AD17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AE17" s="27" t="s">
+      <c r="AE17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AF17" s="27" t="s">
+      <c r="AF17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AG17" s="27" t="s">
+      <c r="AG17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AH17" s="27" t="s">
+      <c r="AH17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AI17" s="27" t="s">
+      <c r="AI17" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC18" s="34">
+      <c r="AC18" s="5">
         <v>16</v>
       </c>
-      <c r="AD18" s="27" t="s">
+      <c r="AD18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AE18" s="27" t="s">
+      <c r="AE18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AF18" s="27" t="s">
+      <c r="AF18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AG18" s="27" t="s">
+      <c r="AG18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AH18" s="27" t="s">
+      <c r="AH18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AI18" s="27" t="s">
+      <c r="AI18" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC19" s="34">
+      <c r="AC19" s="5">
         <v>17</v>
       </c>
-      <c r="AD19" s="27" t="s">
+      <c r="AD19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE19" s="27" t="s">
+      <c r="AE19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AF19" s="27" t="s">
+      <c r="AF19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AG19" s="27" t="s">
+      <c r="AG19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AH19" s="27" t="s">
+      <c r="AH19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AI19" s="27" t="s">
+      <c r="AI19" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC20" s="34">
+      <c r="AC20" s="5">
         <v>18</v>
       </c>
-      <c r="AD20" s="27" t="s">
+      <c r="AD20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE20" s="27" t="s">
+      <c r="AE20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AF20" s="27" t="s">
+      <c r="AF20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AG20" s="27" t="s">
+      <c r="AG20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AH20" s="27" t="s">
+      <c r="AH20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AI20" s="27" t="s">
+      <c r="AI20" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC21" s="34">
+      <c r="AC21" s="5">
         <v>19</v>
       </c>
-      <c r="AD21" s="27" t="s">
+      <c r="AD21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AE21" s="27" t="s">
+      <c r="AE21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AF21" s="27" t="s">
+      <c r="AF21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AG21" s="27" t="s">
+      <c r="AG21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AH21" s="27" t="s">
+      <c r="AH21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AI21" s="27" t="s">
+      <c r="AI21" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC22" s="34">
+      <c r="AC22" s="5">
         <v>20</v>
       </c>
-      <c r="AD22" s="27" t="s">
+      <c r="AD22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="27" t="s">
+      <c r="AE22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AF22" s="27" t="s">
+      <c r="AF22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AG22" s="27" t="s">
+      <c r="AG22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="27" t="s">
+      <c r="AH22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI22" s="27" t="s">
+      <c r="AI22" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC23" s="34">
+      <c r="AC23" s="5">
         <v>21</v>
       </c>
-      <c r="AD23" s="27" t="s">
+      <c r="AD23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27" t="s">
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AG23" s="27" t="s">
+      <c r="AG23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH23" s="27" t="s">
+      <c r="AH23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AI23" s="27" t="s">
+      <c r="AI23" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC24" s="34">
+      <c r="AC24" s="5">
         <v>22</v>
       </c>
-      <c r="AD24" s="27" t="s">
+      <c r="AD24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27" t="s">
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AG24" s="27" t="s">
+      <c r="AG24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27" t="s">
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC25" s="34">
+      <c r="AC25" s="5">
         <v>23</v>
       </c>
-      <c r="AD25" s="27" t="s">
+      <c r="AD25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27" t="s">
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AG25" s="27" t="s">
+      <c r="AG25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27" t="s">
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC26" s="34">
+      <c r="AC26" s="5">
         <v>24</v>
       </c>
-      <c r="AD26" s="35" t="s">
+      <c r="AD26" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27" t="s">
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AG26" s="27" t="s">
+      <c r="AG26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27" t="s">
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC27" s="34">
+      <c r="AC27" s="5">
         <v>25</v>
       </c>
-      <c r="AD27" s="35" t="s">
+      <c r="AD27" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27" t="s">
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AG27" s="27" t="s">
+      <c r="AG27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27" t="s">
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC28" s="34">
+      <c r="AC28" s="5">
         <v>26</v>
       </c>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27" t="s">
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC29" s="34">
+      <c r="AC29" s="5">
         <v>27</v>
       </c>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27" t="s">
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27" t="s">
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC30" s="34">
+      <c r="AC30" s="5">
         <v>28</v>
       </c>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27" t="s">
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27" t="s">
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC31" s="34">
+      <c r="AC31" s="5">
         <v>29</v>
       </c>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27" t="s">
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27" t="s">
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC32" s="34">
+      <c r="AC32" s="5">
         <v>30</v>
       </c>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27" t="s">
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27" t="s">
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC33" s="34">
+      <c r="AC33" s="5">
         <v>31</v>
       </c>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27" t="s">
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27" t="s">
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC34" s="34">
+      <c r="AC34" s="5">
         <v>32</v>
       </c>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27" t="s">
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC35" s="34">
+      <c r="AC35" s="5">
         <v>33</v>
       </c>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="27" t="s">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC36" s="34">
+      <c r="AC36" s="5">
         <v>34</v>
       </c>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27" t="s">
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AI1"/>
     <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Petunjuk" error="Tulis ringkasan KD maksimal 65 huruf" sqref="W3 AA3" xr:uid="{0280FB62-0CEE-4A2D-9FB8-37293863B9B1}">
@@ -2222,126 +2370,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF51B4E-53B6-485D-826E-755691695B8B}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Petunjuk" error="Tulis ringkasan KD maksimal 65 huruf" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>65</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A1DE9-6F30-48A4-A152-C784B7CBCF13}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Petunjuk" error="Tulis ringkasan KD maksimal 65 huruf" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>65</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/import/format/template_harian.xlsx
+++ b/uploads/import/format/template_harian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB73D44-1568-415E-A2A9-436E1DB3E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C260F89-CB51-4B40-BD8E-EE6F83996C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,8 +175,468 @@
     <t>DATA SISWA</t>
   </si>
   <si>
+    <t xml:space="preserve">Mata Pelajaran: {mapel} </t>
+  </si>
+  <si>
+    <t>Mata Pelajaran: {mapel}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILAI PENGETAHUAN {mapel} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILAI KETERAMPILAN {mapel} </t>
+  </si>
+  <si>
+    <t>Pengetahuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengutip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyebutkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menjelaskan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggambar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membilang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengidentifikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menunjukkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memberi label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memberi indeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memasangkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menamai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menandai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membaca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyadari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghafal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meniru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencatat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengulang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memilih </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyatakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mempelajari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menelusuri </t>
+  </si>
+  <si>
+    <t>Menulis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memperkirakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkategorikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membandingkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghitung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengubah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mempertahankan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menguraikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membedakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendiskusikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencontohkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menerangkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengemukakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mempolakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyimpulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meramalkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merangkum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menjabarkan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengurutkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menentukan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menerapkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyesuaikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkalkulasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memodifikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengklasifikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membangun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membiasakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencegah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggambarkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggunakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menilai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melatih </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyelidiki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengoperasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mempersoalkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkonsepkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaksanakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memproduksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memproses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengaitkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyusun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensimulasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memecahkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melakukan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menganalisis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengaudit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menegaskan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendeteksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendiagnosis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyeleksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menominasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendiagramkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megkorelasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merasionalkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menguji </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencerahkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menjelajah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membagankan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menemukan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menelaah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memaksimalkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memerintahkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengedit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengukur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengarahkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkritik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menimbang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memutuskan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memisahkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memprediksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memperjelas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menugaskan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menafsirkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memerinci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membuktikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memvalidasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendukung </t>
+  </si>
+  <si>
+    <t>Memproyeksikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengabstraksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengatur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menganimasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengumpulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengombinasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengarang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menanggulangi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghubungkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menciptakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengkreasikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengoreksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merancang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merencanakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendikte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memfasilitasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membentuk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merumuskan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggeneralisasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menggabungkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memadukan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membatas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mereparasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menampilkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyiapkan </t>
+  </si>
+  <si>
+    <t>Merekonstruksi</t>
+  </si>
+  <si>
+    <t>Merinci</t>
+  </si>
+  <si>
+    <t>Kata Kerja</t>
+  </si>
+  <si>
+    <t>Keterampilan (Praktik/Portofolio/Proyek)</t>
+  </si>
+  <si>
+    <t>Mengenal</t>
+  </si>
+  <si>
+    <t>Memahami</t>
+  </si>
+  <si>
+    <r>
+      <t>Ringkasan KD/Materi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>KETERAMPILAN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yang dinilai</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Ringkasan KD/Materi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PENGETAHUAN</t>
     </r>
     <r>
       <rPr>
@@ -186,7 +646,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PENGETAHUAN </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -199,454 +659,12 @@
       <t>yang dinilai</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Mata Pelajaran: {mapel} </t>
-  </si>
-  <si>
-    <t>Mata Pelajaran: {mapel}</t>
-  </si>
-  <si>
-    <r>
-      <t>Ringkasan KD/Materi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> KETERAMPILAN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> yang dinilai</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NILAI PENGETAHUAN {mapel} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NILAI KETERAMPILAN {mapel} </t>
-  </si>
-  <si>
-    <t>Pengetahuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengutip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyebutkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menjelaskan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggambar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membilang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengidentifikasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menunjukkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memberi label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memberi indeks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memasangkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menamai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menandai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membaca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyadari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menghafal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meniru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mencatat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengulang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memilih </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyatakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mempelajari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menelusuri </t>
-  </si>
-  <si>
-    <t>Menulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memperkirakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkategorikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membandingkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menghitung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengubah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mempertahankan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menguraikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membedakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendiskusikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggali </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mencontohkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menerangkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengemukakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mempolakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyimpulkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meramalkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merangkum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menjabarkan  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengurutkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menentukan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menerapkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyesuaikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkalkulasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memodifikasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengklasifikasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membangun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membiasakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mencegah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggambarkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggunakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menilai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melatih </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyelidiki </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengoperasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mempersoalkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkonsepkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melaksanakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memproduksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memproses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengaitkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyusun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensimulasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memecahkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melakukan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menganalisis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengaudit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menegaskan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendeteksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendiagnosis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyeleksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menominasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendiagramkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megkorelasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merasionalkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menguji </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mencerahkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menjelajah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membagankan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menemukan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menelaah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memaksimalkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memerintahkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengedit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengukur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengarahkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkritik </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menimbang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memutuskan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memisahkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memprediksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memperjelas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menugaskan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menafsirkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memerinci </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membuktikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memvalidasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengetes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendukung </t>
-  </si>
-  <si>
-    <t>Memproyeksikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengabstraksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengatur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menganimasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengumpulkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengombinasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengarang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menanggulangi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menghubungkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menciptakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengkreasikan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengoreksi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merancang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merencanakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendikte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meningkatkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memfasilitasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membentuk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merumuskan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggeneralisasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menggabungkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memadukan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membatas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mereparasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menampilkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyiapkan </t>
-  </si>
-  <si>
-    <t>Merekonstruksi</t>
-  </si>
-  <si>
-    <t>Merinci</t>
-  </si>
-  <si>
-    <t>Kata Kerja</t>
-  </si>
-  <si>
-    <t>Keterampilan (Praktik/Portofolio/Proyek)</t>
-  </si>
-  <si>
-    <t>Mengenal</t>
-  </si>
-  <si>
-    <t>Memahami</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +726,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1017,38 +1041,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,10 +1063,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1091,10 +1079,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1102,10 +1086,57 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,32 +1148,25 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,7 +1452,7 @@
   <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,237 +1478,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="U1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
+    </row>
+    <row r="2" spans="1:35" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="45" t="s">
+      <c r="AE2" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="U1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-    </row>
-    <row r="2" spans="1:35" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-    </row>
-    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>155</v>
+      <c r="AI3" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1692,22 +1716,22 @@
         <v>2</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1715,22 +1739,22 @@
         <v>3</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1738,22 +1762,22 @@
         <v>4</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1761,22 +1785,22 @@
         <v>5</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1784,22 +1808,22 @@
         <v>6</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1807,22 +1831,22 @@
         <v>7</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1830,22 +1854,22 @@
         <v>8</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1853,22 +1877,22 @@
         <v>9</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -1876,22 +1900,22 @@
         <v>10</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -1899,22 +1923,22 @@
         <v>11</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1922,22 +1946,22 @@
         <v>12</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -1945,22 +1969,22 @@
         <v>13</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -1968,22 +1992,22 @@
         <v>14</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="29:35" x14ac:dyDescent="0.25">
@@ -1991,22 +2015,22 @@
         <v>15</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="29:35" x14ac:dyDescent="0.25">
@@ -2014,22 +2038,22 @@
         <v>16</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="29:35" x14ac:dyDescent="0.25">
@@ -2037,22 +2061,22 @@
         <v>17</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="29:35" x14ac:dyDescent="0.25">
@@ -2060,22 +2084,22 @@
         <v>18</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="29:35" x14ac:dyDescent="0.25">
@@ -2083,22 +2107,22 @@
         <v>19</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="29:35" x14ac:dyDescent="0.25">
@@ -2106,22 +2130,22 @@
         <v>20</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="29:35" x14ac:dyDescent="0.25">
@@ -2129,20 +2153,20 @@
         <v>21</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="29:35" x14ac:dyDescent="0.25">
@@ -2150,18 +2174,18 @@
         <v>22</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="29:35" x14ac:dyDescent="0.25">
@@ -2169,18 +2193,18 @@
         <v>23</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="29:35" x14ac:dyDescent="0.25">
@@ -2188,18 +2212,18 @@
         <v>24</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="29:35" x14ac:dyDescent="0.25">
@@ -2207,18 +2231,18 @@
         <v>25</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="29:35" x14ac:dyDescent="0.25">
@@ -2228,12 +2252,12 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="29:35" x14ac:dyDescent="0.25">
@@ -2243,12 +2267,12 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="29:35" x14ac:dyDescent="0.25">
@@ -2258,12 +2282,12 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="29:35" x14ac:dyDescent="0.25">
@@ -2273,12 +2297,12 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="29:35" x14ac:dyDescent="0.25">
@@ -2288,12 +2312,12 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="29:35" x14ac:dyDescent="0.25">
@@ -2303,12 +2327,12 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="29:35" x14ac:dyDescent="0.25">
@@ -2321,7 +2345,7 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="29:35" x14ac:dyDescent="0.25">
@@ -2334,7 +2358,7 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="29:35" x14ac:dyDescent="0.25">
@@ -2347,22 +2371,22 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AI1"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Petunjuk" error="Tulis ringkasan KD maksimal 65 huruf" sqref="W3 AA3" xr:uid="{0280FB62-0CEE-4A2D-9FB8-37293863B9B1}">
